--- a/Rhodamine_CHEMSUMM.xlsx
+++ b/Rhodamine_CHEMSUMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080593CF-3F86-49EF-8F49-FA9072D673FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ABF8F5-B24A-4B6B-878F-102A259C0EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -623,12 +626,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="44">
@@ -991,7 +993,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,10 +1110,11 @@
       <c r="B2">
         <v>566.99</v>
       </c>
-      <c r="C2" s="4">
-        <v>1.7820000000000003E-6</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="2">
+        <f t="shared" ref="C2" si="0">(0.000000074*(2.6*B2)^0.5*(273.15+17)/(1.0791*(AA2*100)^0.6))*(3600/100^2)</f>
+        <v>7.8946170041811414E-6</v>
+      </c>
+      <c r="D2" s="4">
         <v>1.2887999999999998E-2</v>
       </c>
       <c r="E2" s="2">
